--- a/target/test-classes/com/SL8Z/xls/Controller.xlsx
+++ b/target/test-classes/com/SL8Z/xls/Controller.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="16470" windowHeight="3855" tabRatio="320"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13965" windowHeight="5055" tabRatio="320"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Job Position" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <oleSize ref="A1:D11"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A7:B14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Description</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Test Cases</t>
   </si>
   <si>
-    <t xml:space="preserve">It will create a new search </t>
-  </si>
-  <si>
     <t>Test_CreateNewSearch</t>
   </si>
   <si>
@@ -69,10 +66,61 @@
     <t>Test_VerifyActionButtonsSingleJobDashboard</t>
   </si>
   <si>
-    <t>Automated Post 0001</t>
-  </si>
-  <si>
-    <t>Automated Post 0002</t>
+    <t xml:space="preserve">This script will create a new search </t>
+  </si>
+  <si>
+    <t>This script will verify the client side vaidation</t>
+  </si>
+  <si>
+    <t>This script will verify the Server side vaidation</t>
+  </si>
+  <si>
+    <t>This Script will verify all the quick preview buttons</t>
+  </si>
+  <si>
+    <t>This Script will verify the placement fee</t>
+  </si>
+  <si>
+    <t>This Script will verify all the links on engagement dashboard page</t>
+  </si>
+  <si>
+    <t>This script will verify all the corresponding numbers associated with the tabs on enagagement dashboard page</t>
+  </si>
+  <si>
+    <t>This script will verify all the corresponding numbers associated with the tabs on Single job dashboard page</t>
+  </si>
+  <si>
+    <t>This script will verify all the action buttons at client side on engagement dashboard page</t>
+  </si>
+  <si>
+    <t>This script will verify all the action buttons at client side on single job dashboard page</t>
+  </si>
+  <si>
+    <t>Post 7</t>
+  </si>
+  <si>
+    <t>Post 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This script will verify that candidate is presented or not </t>
+  </si>
+  <si>
+    <t>Test_VerifyCandidateIsPresented</t>
+  </si>
+  <si>
+    <t>Test_VerifyPartnerClientSideValidation</t>
+  </si>
+  <si>
+    <t>Test_VerifyPartnerServerSideValidation</t>
+  </si>
+  <si>
+    <t>This script will verify the client side validation</t>
+  </si>
+  <si>
+    <t>This script will verify the Server side validation</t>
+  </si>
+  <si>
+    <t>Test_VerifyPartnerQuickPreviewButtons</t>
   </si>
 </sst>
 </file>
@@ -135,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -144,6 +192,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,16 +497,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125"/>
+    <col min="2" max="2" width="86.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.28515625"/>
     <col min="4" max="1025" width="8.7109375"/>
   </cols>
@@ -473,108 +524,158 @@
     </row>
     <row r="2" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C7" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C8" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -586,7 +687,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,17 +697,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/com/SL8Z/xls/Controller.xlsx
+++ b/target/test-classes/com/SL8Z/xls/Controller.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13965" windowHeight="5055" tabRatio="320"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="15555" windowHeight="2685" tabRatio="320"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Job Position" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A7:B14"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Description</t>
   </si>
@@ -24,110 +24,113 @@
     <t>Runmode</t>
   </si>
   <si>
-    <t>Test Cases</t>
-  </si>
-  <si>
     <t>Test_CreateNewSearch</t>
   </si>
   <si>
+    <t>PositionTitle</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This script will create a new search </t>
+  </si>
+  <si>
+    <t>Post 7</t>
+  </si>
+  <si>
+    <t>Post 8</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>PositionTitle</t>
-  </si>
-  <si>
     <t>Test_VerifyClientSideValidation</t>
   </si>
   <si>
-    <t>N</t>
+    <t>This script will verify the client side vaidation</t>
   </si>
   <si>
     <t>Test_VerifyServerSideValidation</t>
   </si>
   <si>
+    <t>This script will verify the Server side vaidation</t>
+  </si>
+  <si>
     <t>Test_VerifyQuickPreviewButtons</t>
   </si>
   <si>
+    <t>This Script will verify all the quick preview buttons</t>
+  </si>
+  <si>
     <t>Test_VerifyPlacementFee</t>
   </si>
   <si>
+    <t>This Script will verify the placement fee</t>
+  </si>
+  <si>
     <t>Test_VerifyEngagementDashboardPageLinks</t>
   </si>
   <si>
+    <t>This Script will verify all the links on engagement dashboard page</t>
+  </si>
+  <si>
     <t>Test_VerifyActionButtons</t>
   </si>
   <si>
+    <t>This script will verify all the action buttons at client side on engagement dashboard page</t>
+  </si>
+  <si>
     <t>Test_VerifyCorresponding Numbers</t>
   </si>
   <si>
+    <t>This script will verify all the corresponding numbers associated with the tabs on enagagement dashboard page</t>
+  </si>
+  <si>
     <t>Test_VerifyCorrespondingNumberSingleJobDashboard</t>
   </si>
   <si>
+    <t>This script will verify all the corresponding numbers associated with the tabs on Single job dashboard page</t>
+  </si>
+  <si>
     <t>Test_VerifyActionButtonsSingleJobDashboard</t>
   </si>
   <si>
-    <t xml:space="preserve">This script will create a new search </t>
-  </si>
-  <si>
-    <t>This script will verify the client side vaidation</t>
-  </si>
-  <si>
-    <t>This script will verify the Server side vaidation</t>
-  </si>
-  <si>
-    <t>This Script will verify all the quick preview buttons</t>
-  </si>
-  <si>
-    <t>This Script will verify the placement fee</t>
-  </si>
-  <si>
-    <t>This Script will verify all the links on engagement dashboard page</t>
-  </si>
-  <si>
-    <t>This script will verify all the corresponding numbers associated with the tabs on enagagement dashboard page</t>
-  </si>
-  <si>
-    <t>This script will verify all the corresponding numbers associated with the tabs on Single job dashboard page</t>
-  </si>
-  <si>
-    <t>This script will verify all the action buttons at client side on engagement dashboard page</t>
-  </si>
-  <si>
     <t>This script will verify all the action buttons at client side on single job dashboard page</t>
   </si>
   <si>
-    <t>Post 7</t>
-  </si>
-  <si>
-    <t>Post 8</t>
+    <t>Test_VerifyCandidateIsPresented</t>
   </si>
   <si>
     <t xml:space="preserve">This script will verify that candidate is presented or not </t>
   </si>
   <si>
-    <t>Test_VerifyCandidateIsPresented</t>
-  </si>
-  <si>
     <t>Test_VerifyPartnerClientSideValidation</t>
   </si>
   <si>
+    <t>This script will verify the client side validation</t>
+  </si>
+  <si>
     <t>Test_VerifyPartnerServerSideValidation</t>
   </si>
   <si>
-    <t>This script will verify the client side validation</t>
-  </si>
-  <si>
     <t>This script will verify the Server side validation</t>
   </si>
   <si>
     <t>Test_VerifyPartnerQuickPreviewButtons</t>
+  </si>
+  <si>
+    <t>Test_VerifyPartnerSideEngagementDashboardPageLinks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -137,9 +140,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -180,25 +197,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -497,15 +525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="1" max="1" width="55.42578125" customWidth="1"/>
     <col min="2" max="2" width="86.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.28515625"/>
     <col min="4" max="1025" width="8.7109375"/>
@@ -513,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -522,157 +550,168 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -687,7 +726,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,17 +736,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/com/SL8Z/xls/Controller.xlsx
+++ b/target/test-classes/com/SL8Z/xls/Controller.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="15555" windowHeight="2685" tabRatio="320"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="14295" windowHeight="4590" tabRatio="320"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Job Position" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="B4:E15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Description</t>
   </si>
@@ -30,100 +30,94 @@
     <t>PositionTitle</t>
   </si>
   <si>
+    <t xml:space="preserve">This script will create a new search </t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Test_VerifyClientSideValidation</t>
+  </si>
+  <si>
+    <t>Test_VerifyServerSideValidation</t>
+  </si>
+  <si>
+    <t>Test_VerifyQuickPreviewButtons</t>
+  </si>
+  <si>
+    <t>This Script will verify all the quick preview buttons</t>
+  </si>
+  <si>
+    <t>Test_VerifyPlacementFee</t>
+  </si>
+  <si>
+    <t>This Script will verify the placement fee</t>
+  </si>
+  <si>
+    <t>Test_VerifyEngagementDashboardPageLinks</t>
+  </si>
+  <si>
+    <t>This Script will verify all the links on engagement dashboard page</t>
+  </si>
+  <si>
+    <t>Test_VerifyActionButtons</t>
+  </si>
+  <si>
+    <t>This script will verify all the action buttons at client side on engagement dashboard page</t>
+  </si>
+  <si>
+    <t>Test_VerifyCorresponding Numbers</t>
+  </si>
+  <si>
+    <t>This script will verify all the corresponding numbers associated with the tabs on enagagement dashboard page</t>
+  </si>
+  <si>
+    <t>Test_VerifyCorrespondingNumberSingleJobDashboard</t>
+  </si>
+  <si>
+    <t>This script will verify all the corresponding numbers associated with the tabs on Single job dashboard page</t>
+  </si>
+  <si>
+    <t>Test_VerifyActionButtonsSingleJobDashboard</t>
+  </si>
+  <si>
+    <t>This script will verify all the action buttons at client side on single job dashboard page</t>
+  </si>
+  <si>
+    <t>Test_VerifyCandidateIsPresented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This script will verify that candidate is presented or not </t>
+  </si>
+  <si>
+    <t>Test_VerifyPartnerClientSideValidation</t>
+  </si>
+  <si>
+    <t>This script will verify the client side validation</t>
+  </si>
+  <si>
+    <t>Test_VerifyPartnerServerSideValidation</t>
+  </si>
+  <si>
+    <t>This script will verify the Server side validation</t>
+  </si>
+  <si>
+    <t>Test_VerifyPartnerQuickPreviewButtons</t>
+  </si>
+  <si>
+    <t>Test_VerifyPartnerSideEngagementDashboardPageLinks</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Auto-Post 003</t>
+  </si>
+  <si>
+    <t>Auto-Post 004</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This script will create a new search </t>
-  </si>
-  <si>
-    <t>Post 7</t>
-  </si>
-  <si>
-    <t>Post 8</t>
-  </si>
-  <si>
-    <t>TCID</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Test_VerifyClientSideValidation</t>
-  </si>
-  <si>
-    <t>This script will verify the client side vaidation</t>
-  </si>
-  <si>
-    <t>Test_VerifyServerSideValidation</t>
-  </si>
-  <si>
-    <t>This script will verify the Server side vaidation</t>
-  </si>
-  <si>
-    <t>Test_VerifyQuickPreviewButtons</t>
-  </si>
-  <si>
-    <t>This Script will verify all the quick preview buttons</t>
-  </si>
-  <si>
-    <t>Test_VerifyPlacementFee</t>
-  </si>
-  <si>
-    <t>This Script will verify the placement fee</t>
-  </si>
-  <si>
-    <t>Test_VerifyEngagementDashboardPageLinks</t>
-  </si>
-  <si>
-    <t>This Script will verify all the links on engagement dashboard page</t>
-  </si>
-  <si>
-    <t>Test_VerifyActionButtons</t>
-  </si>
-  <si>
-    <t>This script will verify all the action buttons at client side on engagement dashboard page</t>
-  </si>
-  <si>
-    <t>Test_VerifyCorresponding Numbers</t>
-  </si>
-  <si>
-    <t>This script will verify all the corresponding numbers associated with the tabs on enagagement dashboard page</t>
-  </si>
-  <si>
-    <t>Test_VerifyCorrespondingNumberSingleJobDashboard</t>
-  </si>
-  <si>
-    <t>This script will verify all the corresponding numbers associated with the tabs on Single job dashboard page</t>
-  </si>
-  <si>
-    <t>Test_VerifyActionButtonsSingleJobDashboard</t>
-  </si>
-  <si>
-    <t>This script will verify all the action buttons at client side on single job dashboard page</t>
-  </si>
-  <si>
-    <t>Test_VerifyCandidateIsPresented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This script will verify that candidate is presented or not </t>
-  </si>
-  <si>
-    <t>Test_VerifyPartnerClientSideValidation</t>
-  </si>
-  <si>
-    <t>This script will verify the client side validation</t>
-  </si>
-  <si>
-    <t>Test_VerifyPartnerServerSideValidation</t>
-  </si>
-  <si>
-    <t>This script will verify the Server side validation</t>
-  </si>
-  <si>
-    <t>Test_VerifyPartnerQuickPreviewButtons</t>
-  </si>
-  <si>
-    <t>Test_VerifyPartnerSideEngagementDashboardPageLinks</t>
   </si>
 </sst>
 </file>
@@ -202,7 +196,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -216,9 +210,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -527,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +532,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -555,164 +546,164 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +717,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,12 +732,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
